--- a/phancong.xlsx
+++ b/phancong.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Đặng Công Thắng</t>
   </si>
@@ -26,12 +26,6 @@
   </si>
   <si>
     <t>Project</t>
-  </si>
-  <si>
-    <t>HeaderDashboard</t>
-  </si>
-  <si>
-    <t>UserLeft</t>
   </si>
   <si>
     <t>CreateProject</t>
@@ -81,9 +75,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,55 +383,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
+      <c r="B7" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/phancong.xlsx
+++ b/phancong.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Đặng Công Thắng</t>
   </si>
@@ -22,16 +22,46 @@
     <t>Nhiệm vụ</t>
   </si>
   <si>
-    <t>Register</t>
-  </si>
-  <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t>CreateProject</t>
-  </si>
-  <si>
-    <t>Login</t>
+    <t>trang Login</t>
+  </si>
+  <si>
+    <t>trang Register</t>
+  </si>
+  <si>
+    <t>trang Project</t>
+  </si>
+  <si>
+    <t>trang CreateProject</t>
+  </si>
+  <si>
+    <t>trang view user</t>
+  </si>
+  <si>
+    <t>đang…</t>
+  </si>
+  <si>
+    <t>Thiếu update</t>
+  </si>
+  <si>
+    <t>Tiến trình</t>
+  </si>
+  <si>
+    <t>Mô tả</t>
+  </si>
+  <si>
+    <t>Trang createTask</t>
+  </si>
+  <si>
+    <t>Trang profile</t>
+  </si>
+  <si>
+    <t>Trang DetailProject</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -383,56 +413,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
       <c r="B7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2">
         <v>1</v>
       </c>
     </row>
